--- a/Data_preparation/datasets/final_data/AMBARELLA_INC.xlsx
+++ b/Data_preparation/datasets/final_data/AMBARELLA_INC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,114 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>QCOM</t>
-  </si>
-  <si>
-    <t>MRVL</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>VNET</t>
-  </si>
-  <si>
-    <t>NICE</t>
-  </si>
-  <si>
-    <t>BAH</t>
-  </si>
-  <si>
-    <t>SNPS</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>BABA</t>
-  </si>
-  <si>
-    <t>SMCI</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>BIDU</t>
-  </si>
-  <si>
-    <t>LPSN</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>DDOG</t>
-  </si>
-  <si>
-    <t>CGNT</t>
-  </si>
-  <si>
-    <t>LSCC</t>
-  </si>
-  <si>
-    <t>HUBS</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>ACN</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>PTC</t>
   </si>
 </sst>
 </file>
@@ -760,22 +652,22 @@
         <v>42035</v>
       </c>
       <c r="D2">
-        <v>45.94428254794989</v>
+        <v>55.5</v>
       </c>
       <c r="E2">
-        <v>53.31124877929688</v>
+        <v>57.38999938964844</v>
       </c>
       <c r="F2">
-        <v>53.35536055254345</v>
+        <v>59.9900016784668</v>
       </c>
       <c r="G2">
-        <v>45.77517806828758</v>
+        <v>48.5</v>
       </c>
       <c r="H2">
-        <v>1079000000</v>
+        <v>42689006</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>1676932551</v>
@@ -885,22 +777,22 @@
         <v>42124</v>
       </c>
       <c r="D3">
-        <v>12.74488792780431</v>
+        <v>73.33999633789062</v>
       </c>
       <c r="E3">
-        <v>12.64545917510986</v>
+        <v>90.20999908447266</v>
       </c>
       <c r="F3">
-        <v>13.14260035252423</v>
+        <v>91.83999633789062</v>
       </c>
       <c r="G3">
-        <v>11.79580038219858</v>
+        <v>70.38999938964844</v>
       </c>
       <c r="H3">
-        <v>862100000</v>
+        <v>42689006</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>2255765246</v>
@@ -1010,22 +902,22 @@
         <v>42216</v>
       </c>
       <c r="D4">
-        <v>80.5</v>
+        <v>116</v>
       </c>
       <c r="E4">
-        <v>70.95999908447266</v>
+        <v>95.62999725341795</v>
       </c>
       <c r="F4">
-        <v>80.95999908447266</v>
+        <v>119.9899978637695</v>
       </c>
       <c r="G4">
-        <v>64.29000091552734</v>
+        <v>71</v>
       </c>
       <c r="H4">
-        <v>207519000</v>
+        <v>42689006</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>3631502990</v>
@@ -1135,22 +1027,22 @@
         <v>42308</v>
       </c>
       <c r="D5">
-        <v>24.30973052978516</v>
+        <v>49.86999893188477</v>
       </c>
       <c r="E5">
-        <v>23.86653137207031</v>
+        <v>62.81000137329102</v>
       </c>
       <c r="F5">
-        <v>25.31838989257812</v>
+        <v>64.26999664306641</v>
       </c>
       <c r="G5">
-        <v>22.66938400268555</v>
+        <v>48.7599983215332</v>
       </c>
       <c r="H5">
-        <v>60308678</v>
+        <v>42689006</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>1565364633</v>
@@ -1260,22 +1152,22 @@
         <v>42400</v>
       </c>
       <c r="D6">
-        <v>21.77208002677406</v>
+        <v>39</v>
       </c>
       <c r="E6">
-        <v>21.82173156738281</v>
+        <v>46.40000152587891</v>
       </c>
       <c r="F6">
-        <v>22.31824352975136</v>
+        <v>47.15999984741211</v>
       </c>
       <c r="G6">
-        <v>20.89641115827674</v>
+        <v>33.38999938964844</v>
       </c>
       <c r="H6">
-        <v>14840390000</v>
+        <v>42689006</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>1271719160</v>
@@ -1385,22 +1277,22 @@
         <v>42490</v>
       </c>
       <c r="D7">
-        <v>20.13999938964844</v>
+        <v>41.02999877929688</v>
       </c>
       <c r="E7">
-        <v>14.52000045776367</v>
+        <v>41.34000015258789</v>
       </c>
       <c r="F7">
-        <v>20.25</v>
+        <v>41.5</v>
       </c>
       <c r="G7">
-        <v>12.52999973297119</v>
+        <v>35.2599983215332</v>
       </c>
       <c r="H7">
-        <v>263895614</v>
+        <v>42689006</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>1328901055</v>
@@ -1510,22 +1402,22 @@
         <v>42582</v>
       </c>
       <c r="D8">
-        <v>67.30164545273598</v>
+        <v>57.95000076293945</v>
       </c>
       <c r="E8">
-        <v>67.94705963134766</v>
+        <v>72.04000091552734</v>
       </c>
       <c r="F8">
-        <v>68.20522681790243</v>
+        <v>72.98999786376953</v>
       </c>
       <c r="G8">
-        <v>66.35835305168469</v>
+        <v>55.75</v>
       </c>
       <c r="H8">
-        <v>61741703</v>
+        <v>42689006</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>1904920956</v>
@@ -1635,22 +1527,22 @@
         <v>42674</v>
       </c>
       <c r="D9">
-        <v>26.08935555313321</v>
+        <v>61.22000122070312</v>
       </c>
       <c r="E9">
-        <v>32.42730331420898</v>
+        <v>61.52000045776367</v>
       </c>
       <c r="F9">
-        <v>33.05337884225837</v>
+        <v>65.77999877929688</v>
       </c>
       <c r="G9">
-        <v>25.64338327185894</v>
+        <v>53.70000076293945</v>
       </c>
       <c r="H9">
-        <v>123248686</v>
+        <v>42689006</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>2006785744</v>
@@ -1760,22 +1652,22 @@
         <v>42766</v>
       </c>
       <c r="D10">
-        <v>63.06000137329102</v>
+        <v>50</v>
       </c>
       <c r="E10">
-        <v>71.44000244140625</v>
+        <v>58.95000076293945</v>
       </c>
       <c r="F10">
-        <v>73.08000183105469</v>
+        <v>60.52000045776367</v>
       </c>
       <c r="G10">
-        <v>62.2400016784668</v>
+        <v>49.18000030517578</v>
       </c>
       <c r="H10">
-        <v>185748673</v>
+        <v>42689006</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>1642691976</v>
@@ -1885,22 +1777,22 @@
         <v>42855</v>
       </c>
       <c r="D11">
-        <v>105.2824839738816</v>
+        <v>56.20000076293945</v>
       </c>
       <c r="E11">
-        <v>100.4015350341797</v>
+        <v>58.54000091552734</v>
       </c>
       <c r="F11">
-        <v>105.525874177026</v>
+        <v>65.38999938964844</v>
       </c>
       <c r="G11">
-        <v>98.53335616363826</v>
+        <v>55.77999877929688</v>
       </c>
       <c r="H11">
-        <v>931519242</v>
+        <v>42689006</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>1884744860</v>
@@ -2010,22 +1902,22 @@
         <v>42947</v>
       </c>
       <c r="D12">
-        <v>28.84000015258789</v>
+        <v>50.22000122070312</v>
       </c>
       <c r="E12">
-        <v>26.34000015258789</v>
+        <v>54.40000152587891</v>
       </c>
       <c r="F12">
-        <v>29.97999954223633</v>
+        <v>54.93000030517578</v>
       </c>
       <c r="G12">
-        <v>24.48999977111816</v>
+        <v>49.22000122070312</v>
       </c>
       <c r="H12">
-        <v>48253392</v>
+        <v>42689006</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>1679157530</v>
@@ -2135,22 +2027,22 @@
         <v>43039</v>
       </c>
       <c r="D13">
-        <v>27.76754404304676</v>
+        <v>56.59999847412109</v>
       </c>
       <c r="E13">
-        <v>29.36128807067871</v>
+        <v>54.27000045776367</v>
       </c>
       <c r="F13">
-        <v>29.5525363117698</v>
+        <v>58.54999923706055</v>
       </c>
       <c r="G13">
-        <v>27.35772563911961</v>
+        <v>52.45000076293945</v>
       </c>
       <c r="H13">
-        <v>174270076</v>
+        <v>42689006</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>1874609730</v>
@@ -2260,22 +2152,22 @@
         <v>43131</v>
       </c>
       <c r="D14">
-        <v>40.04395874521859</v>
+        <v>49.91999816894531</v>
       </c>
       <c r="E14">
-        <v>41.37875747680664</v>
+        <v>48.08000183105469</v>
       </c>
       <c r="F14">
-        <v>42.73034651222623</v>
+        <v>51.08000183105469</v>
       </c>
       <c r="G14">
-        <v>35.29241164327789</v>
+        <v>46.09000015258789</v>
       </c>
       <c r="H14">
-        <v>4757218036</v>
+        <v>42689006</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>1678648003</v>
@@ -2385,22 +2277,22 @@
         <v>43220</v>
       </c>
       <c r="D15">
-        <v>29.79999923706055</v>
+        <v>46.79999923706055</v>
       </c>
       <c r="E15">
-        <v>26.26000022888184</v>
+        <v>48.86000061035156</v>
       </c>
       <c r="F15">
-        <v>30.10000038146973</v>
+        <v>55.5</v>
       </c>
       <c r="G15">
-        <v>24.76000022888184</v>
+        <v>46</v>
       </c>
       <c r="H15">
-        <v>158300823</v>
+        <v>42689006</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>1567069186</v>
@@ -2498,22 +2390,22 @@
         <v>43312</v>
       </c>
       <c r="D16">
-        <v>27.97210020819945</v>
+        <v>39.04000091552734</v>
       </c>
       <c r="E16">
-        <v>28.09128570556641</v>
+        <v>38.31000137329102</v>
       </c>
       <c r="F16">
-        <v>28.76056376347318</v>
+        <v>40.58000183105469</v>
       </c>
       <c r="G16">
-        <v>26.88108696871215</v>
+        <v>34.33000183105469</v>
       </c>
       <c r="H16">
-        <v>174270076</v>
+        <v>42689006</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>1309021627</v>
@@ -2611,22 +2503,22 @@
         <v>43404</v>
       </c>
       <c r="D17">
-        <v>193.5399932861328</v>
+        <v>34.95000076293945</v>
       </c>
       <c r="E17">
-        <v>198.6300048828125</v>
+        <v>39.9900016784668</v>
       </c>
       <c r="F17">
-        <v>201.3699951171875</v>
+        <v>40.65000152587891</v>
       </c>
       <c r="G17">
-        <v>174.6600036621094</v>
+        <v>30</v>
       </c>
       <c r="H17">
-        <v>24003656</v>
+        <v>42689006</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>1114928583</v>
@@ -2724,22 +2616,22 @@
         <v>43496</v>
       </c>
       <c r="D18">
-        <v>159.5487626816853</v>
+        <v>37.97000122070312</v>
       </c>
       <c r="E18">
-        <v>173.8226776123047</v>
+        <v>40.36999893188477</v>
       </c>
       <c r="F18">
-        <v>175.6270923461549</v>
+        <v>42.20000076293945</v>
       </c>
       <c r="G18">
-        <v>155.512558863845</v>
+        <v>37.16999816894531</v>
       </c>
       <c r="H18">
-        <v>2319000000</v>
+        <v>42689006</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>1217938418</v>
@@ -2837,22 +2729,22 @@
         <v>43585</v>
       </c>
       <c r="D19">
-        <v>2.247999906539917</v>
+        <v>50.45000076293945</v>
       </c>
       <c r="E19">
-        <v>1.899999976158142</v>
+        <v>37.90999984741211</v>
       </c>
       <c r="F19">
-        <v>2.303999900817871</v>
+        <v>51.36000061035156</v>
       </c>
       <c r="G19">
-        <v>1.820999979972839</v>
+        <v>36.68000030517578</v>
       </c>
       <c r="H19">
-        <v>594273308</v>
+        <v>42689006</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>1640166675</v>
@@ -2953,22 +2845,22 @@
         <v>43677</v>
       </c>
       <c r="D20">
-        <v>60.4644694886448</v>
+        <v>50.04000091552734</v>
       </c>
       <c r="E20">
-        <v>59.11875152587891</v>
+        <v>55.86999893188477</v>
       </c>
       <c r="F20">
-        <v>61.39157352261505</v>
+        <v>56.90000152587891</v>
       </c>
       <c r="G20">
-        <v>56.74611594136378</v>
+        <v>43.0099983215332</v>
       </c>
       <c r="H20">
-        <v>5817000000</v>
+        <v>42689006</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>1635341022</v>
@@ -3069,22 +2961,22 @@
         <v>43769</v>
       </c>
       <c r="D21">
-        <v>2.049999952316284</v>
+        <v>52.81999969482422</v>
       </c>
       <c r="E21">
-        <v>2.130000114440918</v>
+        <v>54.7400016784668</v>
       </c>
       <c r="F21">
-        <v>2.249000072479248</v>
+        <v>61.75</v>
       </c>
       <c r="G21">
-        <v>2.000999927520752</v>
+        <v>52.29999923706055</v>
       </c>
       <c r="H21">
-        <v>594273308</v>
+        <v>42689006</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>1739950432</v>
@@ -3185,22 +3077,22 @@
         <v>43861</v>
       </c>
       <c r="D22">
-        <v>23.6926327642264</v>
+        <v>59.40000152587891</v>
       </c>
       <c r="E22">
-        <v>20.75907325744629</v>
+        <v>59.45000076293945</v>
       </c>
       <c r="F22">
-        <v>25.38844422011294</v>
+        <v>73.58999633789062</v>
       </c>
       <c r="G22">
-        <v>19.00478605726309</v>
+        <v>55.22000122070312</v>
       </c>
       <c r="H22">
-        <v>862100000</v>
+        <v>42689006</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>1983839590</v>
@@ -3301,22 +3193,22 @@
         <v>43951</v>
       </c>
       <c r="D23">
-        <v>29.1299991607666</v>
+        <v>50.77999877929688</v>
       </c>
       <c r="E23">
-        <v>36.31999969482422</v>
+        <v>56.7400016784668</v>
       </c>
       <c r="F23">
-        <v>36.45000076293945</v>
+        <v>58.9900016784668</v>
       </c>
       <c r="G23">
-        <v>26.57999992370605</v>
+        <v>47.90999984741211</v>
       </c>
       <c r="H23">
-        <v>2085418676</v>
+        <v>42689006</v>
       </c>
       <c r="I23" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>1798685506</v>
@@ -3417,22 +3309,22 @@
         <v>44043</v>
       </c>
       <c r="D24">
-        <v>49.18523125628565</v>
+        <v>45.41999816894531</v>
       </c>
       <c r="E24">
-        <v>44.42190551757812</v>
+        <v>52.70000076293945</v>
       </c>
       <c r="F24">
-        <v>50.24917073284447</v>
+        <v>53.54999923706055</v>
       </c>
       <c r="G24">
-        <v>41.23985008431981</v>
+        <v>45.09999847412109</v>
       </c>
       <c r="H24">
-        <v>1122466035</v>
+        <v>42689006</v>
       </c>
       <c r="I24" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>1555226092</v>
@@ -3533,22 +3425,22 @@
         <v>44135</v>
       </c>
       <c r="D25">
-        <v>478.8699951171875</v>
+        <v>55.45999908447266</v>
       </c>
       <c r="E25">
-        <v>490.7000122070313</v>
+        <v>78.12999725341797</v>
       </c>
       <c r="F25">
-        <v>518.72998046875</v>
+        <v>79.83000183105469</v>
       </c>
       <c r="G25">
-        <v>463.4100036621094</v>
+        <v>53.65999984741211</v>
       </c>
       <c r="H25">
-        <v>424926346</v>
+        <v>42689006</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>1892362524</v>
@@ -3649,22 +3541,22 @@
         <v>44227</v>
       </c>
       <c r="D26">
-        <v>239.3500061035156</v>
+        <v>97.86000061035156</v>
       </c>
       <c r="E26">
-        <v>283.4599914550781</v>
+        <v>112.4899978637695</v>
       </c>
       <c r="F26">
-        <v>354.8200073242188</v>
+        <v>128.9299926757812</v>
       </c>
       <c r="G26">
-        <v>235.8800048828125</v>
+        <v>97.73000335693359</v>
       </c>
       <c r="H26">
-        <v>278228356</v>
+        <v>42689006</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>3318833411</v>
@@ -3765,22 +3657,22 @@
         <v>44316</v>
       </c>
       <c r="D27">
-        <v>55.13000106811523</v>
+        <v>98.72000122070312</v>
       </c>
       <c r="E27">
-        <v>54.95000076293945</v>
+        <v>100.379997253418</v>
       </c>
       <c r="F27">
-        <v>56.47000122070312</v>
+        <v>102.5800018310547</v>
       </c>
       <c r="G27">
-        <v>47.61999893188477</v>
+        <v>82.58999633789062</v>
       </c>
       <c r="H27">
-        <v>150594095</v>
+        <v>42689006</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>3533888785</v>
@@ -3881,22 +3773,22 @@
         <v>44408</v>
       </c>
       <c r="D28">
-        <v>82.94634035907019</v>
+        <v>99.36000061035156</v>
       </c>
       <c r="E28">
-        <v>84.26999664306641</v>
+        <v>103.5699996948242</v>
       </c>
       <c r="F28">
-        <v>86.77550126072052</v>
+        <v>106.4300003051758</v>
       </c>
       <c r="G28">
-        <v>82.34123106917598</v>
+        <v>89.30000305175781</v>
       </c>
       <c r="H28">
-        <v>2850792605</v>
+        <v>42689006</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>3573074488</v>
@@ -3997,22 +3889,22 @@
         <v>44500</v>
       </c>
       <c r="D29">
-        <v>80.87172081815871</v>
+        <v>186.9400024414062</v>
       </c>
       <c r="E29">
-        <v>78.30628967285156</v>
+        <v>179.5200042724609</v>
       </c>
       <c r="F29">
-        <v>84.50996293035827</v>
+        <v>207</v>
       </c>
       <c r="G29">
-        <v>78.21299557369527</v>
+        <v>170.7799987792969</v>
       </c>
       <c r="H29">
-        <v>123248686</v>
+        <v>42689006</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>6813155905</v>
@@ -4113,22 +4005,22 @@
         <v>44592</v>
       </c>
       <c r="D30">
-        <v>150</v>
+        <v>142.9400024414062</v>
       </c>
       <c r="E30">
-        <v>153.5630035400391</v>
+        <v>139.7100067138672</v>
       </c>
       <c r="F30">
-        <v>163.8345031738281</v>
+        <v>156.1000061035156</v>
       </c>
       <c r="G30">
-        <v>138.3329925537109</v>
+        <v>118.5800018310547</v>
       </c>
       <c r="H30">
-        <v>10664912097</v>
+        <v>42689006</v>
       </c>
       <c r="I30" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>5185984465</v>
@@ -4229,22 +4121,22 @@
         <v>44681</v>
       </c>
       <c r="D31">
-        <v>150.5399932861328</v>
+        <v>82.08000183105469</v>
       </c>
       <c r="E31">
-        <v>153.7299957275391</v>
+        <v>85.22000122070312</v>
       </c>
       <c r="F31">
-        <v>158.7100067138672</v>
+        <v>90.37999725341795</v>
       </c>
       <c r="G31">
-        <v>132.3200073242188</v>
+        <v>65.59999847412109</v>
       </c>
       <c r="H31">
-        <v>272490000</v>
+        <v>42689006</v>
       </c>
       <c r="I31" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>3124400152</v>
@@ -4345,22 +4237,22 @@
         <v>44773</v>
       </c>
       <c r="D32">
-        <v>3.940000057220459</v>
+        <v>85.93000030517578</v>
       </c>
       <c r="E32">
-        <v>3.509999990463257</v>
+        <v>67.87999725341797</v>
       </c>
       <c r="F32">
-        <v>4.380000114440918</v>
+        <v>93.62999725341795</v>
       </c>
       <c r="G32">
-        <v>3.339999914169312</v>
+        <v>67.31999969482422</v>
       </c>
       <c r="H32">
-        <v>448228270</v>
+        <v>42689006</v>
       </c>
       <c r="I32" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>3299295001</v>
@@ -4461,22 +4353,22 @@
         <v>44865</v>
       </c>
       <c r="D33">
-        <v>83.23999786376953</v>
+        <v>56.36999893188477</v>
       </c>
       <c r="E33">
-        <v>75.77999877929688</v>
+        <v>74.19999694824219</v>
       </c>
       <c r="F33">
-        <v>86.87999725341797</v>
+        <v>76.59999847412109</v>
       </c>
       <c r="G33">
-        <v>66.44699859619141</v>
+        <v>51.29000091552734</v>
       </c>
       <c r="H33">
-        <v>323270704</v>
+        <v>42689006</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>2102549494</v>
@@ -4577,22 +4469,22 @@
         <v>44957</v>
       </c>
       <c r="D34">
-        <v>3.789999961853027</v>
+        <v>90</v>
       </c>
       <c r="E34">
-        <v>3.700000047683716</v>
+        <v>94.30999755859376</v>
       </c>
       <c r="F34">
-        <v>4.099999904632568</v>
+        <v>99.86000061035156</v>
       </c>
       <c r="G34">
-        <v>3.440000057220459</v>
+        <v>89.33000183105469</v>
       </c>
       <c r="H34">
-        <v>72969110</v>
+        <v>42689006</v>
       </c>
       <c r="I34" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>3481916392</v>
@@ -4693,22 +4585,22 @@
         <v>45046</v>
       </c>
       <c r="D35">
-        <v>80.47000122070312</v>
+        <v>61.84999847412109</v>
       </c>
       <c r="E35">
-        <v>81.30999755859375</v>
+        <v>72.31999969482422</v>
       </c>
       <c r="F35">
-        <v>87.41999816894531</v>
+        <v>83.16000366210938</v>
       </c>
       <c r="G35">
-        <v>75.16000366210938</v>
+        <v>61.2400016784668</v>
       </c>
       <c r="H35">
-        <v>136895573</v>
+        <v>42689006</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>2453265027</v>
@@ -4809,22 +4701,22 @@
         <v>45138</v>
       </c>
       <c r="D36">
-        <v>572.4199829101562</v>
+        <v>82.41999816894531</v>
       </c>
       <c r="E36">
-        <v>546.52001953125</v>
+        <v>62.15000152587891</v>
       </c>
       <c r="F36">
-        <v>579.1199951171875</v>
+        <v>84.72000122070312</v>
       </c>
       <c r="G36">
-        <v>477.510009765625</v>
+        <v>57.20000076293945</v>
       </c>
       <c r="H36">
-        <v>52693110</v>
+        <v>42689006</v>
       </c>
       <c r="I36" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>3303635295</v>
@@ -4925,22 +4817,22 @@
         <v>45230</v>
       </c>
       <c r="D37">
-        <v>204.0399932861328</v>
+        <v>44.7400016784668</v>
       </c>
       <c r="E37">
-        <v>240.0800018310547</v>
+        <v>58.70999908447266</v>
       </c>
       <c r="F37">
-        <v>252.75</v>
+        <v>58.81000137329102</v>
       </c>
       <c r="G37">
-        <v>197.8500061035156</v>
+        <v>43.59000015258789</v>
       </c>
       <c r="H37">
-        <v>3325150886</v>
+        <v>42689006</v>
       </c>
       <c r="I37" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>1794121613</v>
@@ -5041,22 +4933,22 @@
         <v>45322</v>
       </c>
       <c r="D38">
-        <v>354.4882078035527</v>
+        <v>53.13000106811523</v>
       </c>
       <c r="E38">
-        <v>364.9865112304687</v>
+        <v>55.84999847412109</v>
       </c>
       <c r="F38">
-        <v>370.4596485847449</v>
+        <v>65.38999938964844</v>
       </c>
       <c r="G38">
-        <v>349.5896494174895</v>
+        <v>50.84000015258789</v>
       </c>
       <c r="H38">
-        <v>622000000</v>
+        <v>42689006</v>
       </c>
       <c r="I38" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>2115438717</v>
@@ -5157,22 +5049,22 @@
         <v>45412</v>
       </c>
       <c r="D39">
-        <v>32.91999816894531</v>
+        <v>45.18000030517578</v>
       </c>
       <c r="E39">
-        <v>29.47999954223633</v>
+        <v>58.2599983215332</v>
       </c>
       <c r="F39">
-        <v>34.43000030517578</v>
+        <v>59.9900016784668</v>
       </c>
       <c r="G39">
-        <v>29.14999961853028</v>
+        <v>44.52000045776367</v>
       </c>
       <c r="H39">
-        <v>48253392</v>
+        <v>42689006</v>
       </c>
       <c r="I39" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>1883031920</v>
@@ -5273,22 +5165,22 @@
         <v>45504</v>
       </c>
       <c r="D40">
-        <v>65.3347813084503</v>
+        <v>51.59999847412109</v>
       </c>
       <c r="E40">
-        <v>75.98967742919922</v>
+        <v>59.70000076293945</v>
       </c>
       <c r="F40">
-        <v>78.74061759069839</v>
+        <v>63.97999954223633</v>
       </c>
       <c r="G40">
-        <v>53.01535875336031</v>
+        <v>39.68999862670898</v>
       </c>
       <c r="H40">
-        <v>862100000</v>
+        <v>42689006</v>
       </c>
       <c r="I40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>2157462244</v>
@@ -5389,22 +5281,22 @@
         <v>45596</v>
       </c>
       <c r="D41">
-        <v>171.1399993896484</v>
+        <v>56.54000091552734</v>
       </c>
       <c r="E41">
-        <v>336.75</v>
+        <v>71.55000305175781</v>
       </c>
       <c r="F41">
-        <v>344.7699890136719</v>
+        <v>81.31999969482422</v>
       </c>
       <c r="G41">
-        <v>158.3300018310547</v>
+        <v>56.2400016784668</v>
       </c>
       <c r="H41">
-        <v>307636373</v>
+        <v>42689006</v>
       </c>
       <c r="I41" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>2319213874</v>
@@ -5505,22 +5397,22 @@
         <v>45688</v>
       </c>
       <c r="D42">
-        <v>29.5</v>
+        <v>73.77999877929688</v>
       </c>
       <c r="E42">
-        <v>23.45000076293945</v>
+        <v>61.43000030517578</v>
       </c>
       <c r="F42">
-        <v>35.97999954223633</v>
+        <v>84</v>
       </c>
       <c r="G42">
-        <v>22.81999969482422</v>
+        <v>60.04999923706055</v>
       </c>
       <c r="H42">
-        <v>134349704</v>
+        <v>42689006</v>
       </c>
       <c r="I42" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>3199373834</v>
@@ -5621,22 +5513,22 @@
         <v>45777</v>
       </c>
       <c r="D43">
-        <v>160.2100067138672</v>
+        <v>48.95000076293945</v>
       </c>
       <c r="E43">
-        <v>168.3200073242188</v>
+        <v>52.63999938964844</v>
       </c>
       <c r="F43">
-        <v>174.2599945068359</v>
+        <v>66.30999755859375</v>
       </c>
       <c r="G43">
-        <v>151.6699981689453</v>
+        <v>48.09000015258789</v>
       </c>
       <c r="H43">
-        <v>119792704</v>
+        <v>42689006</v>
       </c>
       <c r="I43" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>2036571306</v>
@@ -5737,22 +5629,22 @@
         <v>45869</v>
       </c>
       <c r="D44">
-        <v>77.06999969482422</v>
+        <v>64</v>
       </c>
       <c r="E44">
-        <v>62.86999893188477</v>
+        <v>82.48000335693359</v>
       </c>
       <c r="F44">
-        <v>80.05999755859375</v>
+        <v>93.44000244140624</v>
       </c>
       <c r="G44">
-        <v>62.61999893188477</v>
+        <v>61.31000137329102</v>
       </c>
       <c r="H44">
-        <v>862100000</v>
+        <v>42689006</v>
       </c>
       <c r="I44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>2803147010</v>
